--- a/Projet/GenDung/Assets/Extra/Balancing/GenDung_Balancing.xlsx
+++ b/Projet/GenDung/Assets/Extra/Balancing/GenDung_Balancing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity - Dungeon Project RP\Project\GenDung\Projet\GenDung\Assets\Extra\Balancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3AE6B-7661-4A73-B635-959F04944327}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23282BFA-A7FB-48A3-8FBD-00926B0424DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{7D3B3BDF-DED2-4DA8-91A2-DF410998FF46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7D3B3BDF-DED2-4DA8-91A2-DF410998FF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51957B96-EC4E-41AE-9449-2134AC46D0A9}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f>L2*K2</f>
+        <f t="shared" ref="M2:M10" si="0">L2*K2</f>
         <v>0</v>
       </c>
       <c r="N2">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H10" si="0">G3*D3</f>
+        <f t="shared" ref="H3:H10" si="1">G3*D3</f>
         <v>20</v>
       </c>
       <c r="I3" s="6">
@@ -789,19 +789,19 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <f>L3*K3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="1">M3+H3</f>
+        <f t="shared" ref="N3:N10" si="2">M3+H3</f>
         <v>26</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O10" si="2">IF(L3=0,N3,N3/(L3+1))</f>
+        <f t="shared" ref="O3:O10" si="3">IF(L3=0,N3,N3/(L3+1))</f>
         <v>8.6666666666666661</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P10" si="3">O3/E3</f>
+        <f t="shared" ref="P3:P10" si="4">O3/E3</f>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I4" s="6">
@@ -846,19 +846,19 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f>L4*K4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
       <c r="Q4" s="10">
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I5" s="6">
@@ -911,19 +911,19 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f>L5*K5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I6" s="6">
@@ -968,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f>L6*K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I7" s="6">
@@ -1025,19 +1025,19 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <f>L7*K7</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q7" s="10">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I8" s="6">
@@ -1090,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <f>L8*K8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="O8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I9" s="6">
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <f>L9*K9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O9">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I10" s="6">
@@ -1204,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <f>L10*K10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="Q10" s="10">
@@ -1460,11 +1460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826E3668-8CED-439D-A07C-9AD6E97ABBC2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1530,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD5E520-1A24-417D-9D12-2AD7F38C1E20}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Projet/GenDung/Assets/Extra/Balancing/GenDung_Balancing.xlsx
+++ b/Projet/GenDung/Assets/Extra/Balancing/GenDung_Balancing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity - Dungeon Project RP\Project\GenDung\Projet\GenDung\Assets\Extra\Balancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17053F83-3C8C-438E-B55C-AA9EA50A32FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26286F0D-A2EE-40C4-965A-EF163506949F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{7D3B3BDF-DED2-4DA8-91A2-DF410998FF46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{7D3B3BDF-DED2-4DA8-91A2-DF410998FF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Spell Balancing" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,22 @@
     <sheet name="Status" sheetId="2" r:id="rId7"/>
     <sheet name="Stats" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="104">
   <si>
     <t>Perso</t>
   </si>
@@ -375,6 +380,9 @@
   </si>
   <si>
     <t>Boss Dungeon 2 template</t>
+  </si>
+  <si>
+    <t>Magic</t>
   </si>
 </sst>
 </file>
@@ -671,15 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -710,24 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,6 +740,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1110,35 +1118,35 @@
     <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="E1" s="34" t="s">
+    <row r="1" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="E1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="37" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1153,28 +1161,28 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="27" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1183,34 +1191,34 @@
       <c r="N2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="28" t="s">
+      <c r="O2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="25" t="s">
         <v>78</v>
       </c>
       <c r="Y2" s="2" t="s">
@@ -1323,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y11" si="0">W3*V3</f>
+        <f t="shared" ref="Y3:Y5" si="0">W3*V3</f>
         <v>0</v>
       </c>
       <c r="Z3">
@@ -1407,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" ref="S4:S11" si="3">R4*O4</f>
+        <f t="shared" ref="S4:S5" si="3">R4*O4</f>
         <v>32</v>
       </c>
       <c r="T4" s="5">
@@ -1434,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z11" si="4">Y4+S4</f>
+        <f t="shared" ref="Z4:Z5" si="4">Y4+S4</f>
         <v>47</v>
       </c>
       <c r="AA4">
@@ -1442,7 +1450,7 @@
         <v>11.75</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB11" si="6">AA4/P4</f>
+        <f t="shared" ref="AB4:AB5" si="6">AA4/P4</f>
         <v>11.75</v>
       </c>
     </row>
@@ -1629,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="7">
-        <f>R6*O6</f>
+        <f t="shared" ref="S6:S11" si="7">R6*O6</f>
         <v>40</v>
       </c>
       <c r="T6" s="5">
@@ -1652,11 +1660,11 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <f>W6*V6</f>
+        <f t="shared" ref="Y6:Y11" si="8">W6*V6</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>Y6+S6</f>
+        <f t="shared" ref="Z6:Z11" si="9">Y6+S6</f>
         <v>40</v>
       </c>
       <c r="AA6">
@@ -1664,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="AB6">
-        <f>AA6/P6</f>
+        <f t="shared" ref="AB6:AB11" si="10">AA6/P6</f>
         <v>10</v>
       </c>
     </row>
@@ -1736,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="7">
-        <f>R7*O7</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="T7" s="5">
@@ -1759,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <f>W7*V7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>Y7+S7</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="AA7">
@@ -1771,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="AB7">
-        <f>AA7/P7</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -1843,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="7">
-        <f>R8*O8</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="T8" s="5">
@@ -1866,11 +1874,11 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>W8*V8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>Y8+S8</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="AA8">
@@ -1878,7 +1886,7 @@
         <v>40</v>
       </c>
       <c r="AB8">
-        <f>AA8/P8</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="AC8" s="8">
@@ -1958,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="7">
-        <f>R9*O9</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="T9" s="5">
@@ -1981,11 +1989,11 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>W9*V9</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Z9">
-        <f>Y9+S9</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="AA9">
@@ -1993,7 +2001,7 @@
         <v>23.5</v>
       </c>
       <c r="AB9">
-        <f>AA9/P9</f>
+        <f t="shared" si="10"/>
         <v>11.75</v>
       </c>
     </row>
@@ -2065,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="7">
-        <f>R10*O10</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="T10" s="5">
@@ -2088,11 +2096,11 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>W10*V10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>Y10+S10</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="AA10">
@@ -2100,7 +2108,7 @@
         <v>48</v>
       </c>
       <c r="AB10">
-        <f>AA10/P10</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
     </row>
@@ -2172,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="7">
-        <f>R11*O11</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="T11" s="5">
@@ -2195,11 +2203,11 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <f>W11*V11</f>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
       <c r="Z11">
-        <f>Y11+S11</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AA11">
@@ -2207,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="AB11">
-        <f>AA11/P11</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AC11" s="8">
@@ -2287,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" ref="S12:S14" si="7">R12*O12</f>
+        <f t="shared" ref="S12:S14" si="11">R12*O12</f>
         <v>53</v>
       </c>
       <c r="T12" s="5">
@@ -2310,11 +2318,11 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12:Y14" si="8">W12*V12</f>
+        <f t="shared" ref="Y12:Y14" si="12">W12*V12</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:Z14" si="9">Y12+S12</f>
+        <f t="shared" ref="Z12:Z14" si="13">Y12+S12</f>
         <v>53</v>
       </c>
       <c r="AA12">
@@ -2322,7 +2330,7 @@
         <v>53</v>
       </c>
       <c r="AB12">
-        <f t="shared" ref="AB12:AB14" si="10">AA12/P12</f>
+        <f t="shared" ref="AB12:AB14" si="14">AA12/P12</f>
         <v>26.5</v>
       </c>
     </row>
@@ -2394,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="T13" s="5">
@@ -2417,11 +2425,11 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="AA13">
@@ -2429,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
     </row>
@@ -2501,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="T14" s="5">
@@ -2524,11 +2532,11 @@
         <v>2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="AA14">
@@ -2536,7 +2544,7 @@
         <v>15.333333333333334</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.333333333333334</v>
       </c>
       <c r="AC14" s="8">
@@ -2778,28 +2786,28 @@
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2808,7 +2816,7 @@
       <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3356,22 +3364,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -3400,10 +3408,10 @@
         <v>43</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="19">
         <f>SUM(B3:B6)</f>
         <v>11</v>
       </c>
@@ -3452,7 +3460,7 @@
       <c r="P3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="20">
         <f>Q2+B7</f>
         <v>30</v>
       </c>
@@ -3604,22 +3612,22 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -3648,10 +3656,10 @@
         <v>43</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <f>SUM(B12:B15)</f>
         <v>15</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="P12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="20">
         <f>Q11+B16</f>
         <v>30</v>
       </c>
@@ -3842,22 +3850,22 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -3890,10 +3898,10 @@
         <v>43</v>
       </c>
       <c r="N20" s="12"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="19">
         <f>SUM(B21:B24)</f>
         <v>16</v>
       </c>
@@ -3946,7 +3954,7 @@
       <c r="P21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <f>Q20+B25</f>
         <v>30</v>
       </c>
@@ -4131,22 +4139,22 @@
       <c r="U27" s="6"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -4179,10 +4187,10 @@
         <v>43</v>
       </c>
       <c r="N29" s="12"/>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="19">
         <f>SUM(B30:B33)</f>
         <v>10</v>
       </c>
@@ -4235,7 +4243,7 @@
       <c r="P30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="20">
         <f>Q29+B34</f>
         <v>30</v>
       </c>
@@ -4503,29 +4511,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD5E520-1A24-417D-9D12-2AD7F38C1E20}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -4555,10 +4563,10 @@
         <v>43</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="19">
         <f>SUM(B3:B6)</f>
         <v>8</v>
       </c>
@@ -4608,7 +4616,7 @@
       <c r="P3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="20">
         <f>Q2+B7</f>
         <v>38</v>
       </c>
@@ -4756,22 +4764,22 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -4801,10 +4809,10 @@
         <v>43</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="19">
         <f>SUM(B11:B14)</f>
         <v>12</v>
       </c>
@@ -4854,7 +4862,7 @@
       <c r="P11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="20">
         <f>Q10+B15</f>
         <v>92</v>
       </c>
@@ -5002,22 +5010,22 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -5046,10 +5054,10 @@
         <v>43</v>
       </c>
       <c r="N18" s="12"/>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="19">
         <f>SUM(B19:B22)</f>
         <v>24</v>
       </c>
@@ -5098,7 +5106,7 @@
       <c r="P19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="20">
         <f>Q18+B23</f>
         <v>64</v>
       </c>
@@ -5222,22 +5230,22 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -5266,10 +5274,10 @@
         <v>43</v>
       </c>
       <c r="N26" s="12"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="19">
         <f>SUM(B27:B30)</f>
         <v>40</v>
       </c>
@@ -5318,7 +5326,7 @@
       <c r="P27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="20">
         <f>Q26+B31</f>
         <v>160</v>
       </c>
@@ -5484,80 +5492,80 @@
     <col min="21" max="21" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="X1" s="40" t="s">
         <v>100</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -5657,7 +5665,7 @@
         <f>V2+Q2</f>
         <v>46</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="19">
         <f>ROUNDDOWN(($Z$2-V2)/Q2,0)</f>
         <v>19</v>
       </c>
@@ -5760,7 +5768,7 @@
         <f t="shared" ref="W3:W5" si="1">V3+Q3</f>
         <v>94</v>
       </c>
-      <c r="X3" s="50">
+      <c r="X3" s="41">
         <f t="shared" ref="X3:X5" si="2">ROUNDDOWN(($Z$2-V3)/Q3,0)</f>
         <v>4</v>
       </c>
@@ -5855,7 +5863,7 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="X4" s="50">
+      <c r="X4" s="41">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -5950,7 +5958,7 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6046,7 +6054,7 @@
         <f>V7+Q7</f>
         <v>86</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="19">
         <f>ROUNDDOWN(($Z$2-V7)/Q7,0)</f>
         <v>6</v>
       </c>
@@ -6141,7 +6149,7 @@
         <f t="shared" ref="W8:W10" si="4">V8+Q8</f>
         <v>224</v>
       </c>
-      <c r="X8" s="50">
+      <c r="X8" s="41">
         <f t="shared" ref="X8:X10" si="5">ROUNDDOWN(($Z$2-V8)/Q8,0)</f>
         <v>1</v>
       </c>
@@ -6236,7 +6244,7 @@
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="X9" s="50">
+      <c r="X9" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6331,7 +6339,7 @@
         <f t="shared" si="4"/>
         <v>776</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6361,16 +6369,16 @@
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6511,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AE1236-A105-42BE-A72E-64952B87EA61}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,7 +6562,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -6566,7 +6574,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>42</v>
